--- a/doc/task06/ScrumPlanung.xlsx
+++ b/doc/task06/ScrumPlanung.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alain\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3E4027-52FF-408E-88E0-B972B49CFB50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB9C0537-54DF-4CC6-ABD0-D73411774866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
-    <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
-    <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
-    <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
+    <sheet name="Ressourcen" sheetId="5" r:id="rId2"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId3"/>
+    <sheet name="Sprint Backlog" sheetId="2" r:id="rId4"/>
+    <sheet name="BurndownChart" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -69,6 +72,24 @@
     <t>jonas-burkhalter</t>
   </si>
   <si>
+    <t>Ressourcen</t>
+  </si>
+  <si>
+    <t>pro Person</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -96,18 +117,27 @@
     <t>MainView anzeigen</t>
   </si>
   <si>
+    <t>Als behandelnder Arzt, möchte ich eine Hauptansicht haben, in der ich zukünfitge Termine einsehen und Patienten suchen kann.</t>
+  </si>
+  <si>
     <t>high</t>
   </si>
   <si>
     <t>40h</t>
   </si>
   <si>
-    <t>work in progress</t>
+    <t>39h</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
   <si>
     <t>Anzeigen Patientendetails</t>
   </si>
   <si>
+    <t>Als behandelnder Arzt, möchte ich die Informationen eines Patienten einsehen können.</t>
+  </si>
+  <si>
     <t>8h</t>
   </si>
   <si>
@@ -117,33 +147,63 @@
     <t>Termin erstellen</t>
   </si>
   <si>
+    <t>Als behandelnder Arzt, möchte ich für einen Patienten einen neuen Termin erstellen können.</t>
+  </si>
+  <si>
     <t>Anzeigen Termindetails</t>
   </si>
   <si>
+    <t>Als behandelnder Arzt, möchte die Informationen eines Termins einsehen können.</t>
+  </si>
+  <si>
     <t>Behandlungsnotizen erfassen</t>
   </si>
   <si>
+    <t>Als behandelnder Arzt, möchte ich in der Terminansicht Notizen zu der aktuellen Sitzung festhalten.</t>
+  </si>
+  <si>
     <t>16h</t>
   </si>
   <si>
+    <t>Patientendetails editieren</t>
+  </si>
+  <si>
+    <t>Als behandelnder Arzt möchte ich einen bestehenden Patienten editieren können.</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Aktuelle Behandlung</t>
+  </si>
+  <si>
+    <t>Als behandelnder Arzt, möchte ich pro Patient die aktuelle Behandlung im Patientendetail einsehen können.</t>
+  </si>
+  <si>
     <t>Erfassung Patientenaufgaben</t>
   </si>
   <si>
-    <t>medium</t>
+    <t xml:space="preserve">Als behandelnder Arzt, möchte ich für den Patienten zu erledigende Aufgaben erteilen können. </t>
   </si>
   <si>
     <t>Stationäre Behandlung erfassen</t>
   </si>
   <si>
+    <t>Als behandelnder Arzt, möchte ich den Patienten in eine andere Klinik oder Einrichtung einweisen können.</t>
+  </si>
+  <si>
     <t>Patient erstellen</t>
   </si>
   <si>
+    <t xml:space="preserve">Als behandelnder Arzt, möchte ich einen neuen Patienten erstellen und dessen Informationen erfassen können </t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -156,6 +216,9 @@
     <t>Reviewer</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Aufsetzen Datenbank</t>
   </si>
   <si>
@@ -171,49 +234,166 @@
     <t>Simon</t>
   </si>
   <si>
+    <t>Patientenliste (Daten bereitstellen)</t>
+  </si>
+  <si>
+    <t>Erstellung der Patient Model-Klasse und Tabelle in Datenbank. Bereitstellung einer Methode, die alle Patienten liefert.</t>
+  </si>
+  <si>
+    <t>Datenbank, Model</t>
+  </si>
+  <si>
+    <t>Sascha</t>
+  </si>
+  <si>
+    <t>Patientenliste in Mainview</t>
+  </si>
+  <si>
+    <t>Mainview erweitern, sodass die Patientenliste und Button "Neuer Patient" angezeigt werden.</t>
+  </si>
+  <si>
+    <t>View, Presenter</t>
+  </si>
+  <si>
+    <t>Alain</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Appointmentliste (Daten bereitstellen)</t>
+  </si>
+  <si>
+    <t>Erstellung der Appointment Model-Klasse und Tabelle in Datenbank. Bereitstellung einer Methode, die alle Appointmente liefert.</t>
+  </si>
+  <si>
+    <t>Appointmentliste in Mainview</t>
+  </si>
+  <si>
+    <t>Mainview erweitern, sodass die Appointmentliste und Button "Neuer Appointment" angezeigt werden.</t>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>Routingkonzept definieren.</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>Patientenliste (Daten bereitstellen)</t>
-  </si>
-  <si>
-    <t>Erstellung der Patient Model-Klasse und Tabelle in Datenbank. Bereitstellung einer Methode, die alle Patienten liefert.</t>
-  </si>
-  <si>
-    <t>Datenbank, Model</t>
-  </si>
-  <si>
-    <t>Sascha</t>
-  </si>
-  <si>
-    <t>Patientenliste in Mainview</t>
-  </si>
-  <si>
-    <t>Mainview erweitern, sodass die Patientenliste und Button "Neuer Patient" angezeigt werden.</t>
-  </si>
-  <si>
-    <t>View, Presenter</t>
-  </si>
-  <si>
-    <t>Alain</t>
-  </si>
-  <si>
-    <t>Markus</t>
-  </si>
-  <si>
-    <t>Terminliste (Daten bereitstellen)</t>
-  </si>
-  <si>
-    <t>Erstellung der Termin Model-Klasse und Tabelle in Datenbank. Bereitstellung einer Methode, die alle Termine liefert.</t>
-  </si>
-  <si>
-    <t>Terminliste in Mainview</t>
-  </si>
-  <si>
-    <t>Mainview erweitern, sodass die Terminliste und Button "Neuer Termin" angezeigt werden.</t>
+    <t>Patient Presenter</t>
+  </si>
+  <si>
+    <t>Klasse PatientPresenter erstellen und ausprogrammieren. Liste aller Termine dieses Patienten.</t>
+  </si>
+  <si>
+    <t>Presenter</t>
+  </si>
+  <si>
+    <t>Patient View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface PatientView und Klasse PatientView erstellen und ausprogrammieren. </t>
+  </si>
+  <si>
+    <t>Patient Model ergänzen</t>
+  </si>
+  <si>
+    <t>Deprecated Date ersetzen. Patient Model ergänzen mit: AHV-Nr, Beruf, Arbeitgeber. Geburtsdatum in der Patientenübersicht anzeigen.</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Termin erstellen: Presenter</t>
+  </si>
+  <si>
+    <t>Klasse CreateAppointmentPresenter erstellen und ausprogrammieren. Dropdown wird mit allen Patienten ausgefüllt. Wenn man aus dem Patientendetail kommt: Patient vorausgewählt und Dropdown read-only.</t>
+  </si>
+  <si>
+    <t>Bis 18.05.2020 zu erledigen!</t>
+  </si>
+  <si>
+    <t>Termin erstellen:  View</t>
+  </si>
+  <si>
+    <t>Interface CreateAppointmentView und Klasse CreateAppointmentView erstellen und ausprogrammieren.</t>
+  </si>
+  <si>
+    <t>Appointment Model ergänzen</t>
+  </si>
+  <si>
+    <t>Appointment Model ergänzen: Feld Date umbenennen zu start_date, zusätzlich end_date einfügen.</t>
+  </si>
+  <si>
+    <t>Termin erstellen: Datepicker &amp; Zeitraum</t>
+  </si>
+  <si>
+    <t>Datepicker zur Verfügung stellen. Wenn Datum ausgewählt: Liste aller Termine an diesem Datum wird angezeigt. Je ein Inputfeld für Anfangs- und Endzeitpunkt.</t>
+  </si>
+  <si>
+    <t>Termin erstellen: Validierung Zeitpunkt</t>
+  </si>
+  <si>
+    <t>Eingegebener Zeitraum mit Terminen abgleichen und validieren, ob gewünschter Zeitraum frei ist. Termin abspeichern.</t>
+  </si>
+  <si>
+    <t>Model, Validator</t>
+  </si>
+  <si>
+    <t>Appointment Presenter</t>
+  </si>
+  <si>
+    <t>Klasse AppointmentDetailPresenter erstellen und ausprogrammieren.</t>
+  </si>
+  <si>
+    <t>Appointment View</t>
+  </si>
+  <si>
+    <t>Interface AppointmentView und Klasse AppointmentView erstellen und ausprogrammieren.</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Ta08,1</t>
+  </si>
+  <si>
+    <t>Klassendiagramm ergänzen</t>
+  </si>
+  <si>
+    <t>Klassendiagramm mit Datenbankspezifischen Klassen ergänzen.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>TA08,2</t>
+  </si>
+  <si>
+    <t>Model Klassen erstellen (Part 1)</t>
+  </si>
+  <si>
+    <t>Model Klassen aus dem Klassendiagramm implementieren (+Respository). StationaryTreatment, Clinic. Relationen beachten und implementieren!</t>
+  </si>
+  <si>
+    <t>TA08,3</t>
+  </si>
+  <si>
+    <t>Model Klassen erstellen (Part 2)</t>
+  </si>
+  <si>
+    <t>Model Klassen aus dem Klassendiagramm implementieren (+Respository). Medication, Drug, Task. Relationen beachten und implementieren!</t>
+  </si>
+  <si>
+    <t>TA08,4</t>
+  </si>
+  <si>
+    <t>Persistence concept &amp; Documentation</t>
+  </si>
+  <si>
+    <t>Persistence concept erstellen und Resultats-Dokument erstellen + hochladen</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint </t>
@@ -226,37 +406,13 @@
   </si>
   <si>
     <t>Remaining Ressources</t>
-  </si>
-  <si>
-    <t>Als behandelnder Arzt, möchte ich eine Hauptansicht haben, in der ich zukünfitge Termine einsehen und Patienten suchen kann.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Als behandelnder Arzt, möchte ich einen neuen Patienten erstellen und dessen Informationen erfassen können </t>
-  </si>
-  <si>
-    <t>Als behandelnder Arzt, möchte ich für einen Patienten einen neuen Termin erstellen können.</t>
-  </si>
-  <si>
-    <t>Als behandelnder Arzt, möchte die Informationen eines Termins einsehen können.</t>
-  </si>
-  <si>
-    <t>Als behandelnder Arzt, möchte ich die Informationen eines Patienten einsehen können.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Als behandelnder Arzt, möchte ich für den Patienten zu erledigende Aufgaben erteilen können. </t>
-  </si>
-  <si>
-    <t>Als behandelnder Arzt, möchte ich den Patienten in eine andere Klinik oder Einrichtung einweisen können.</t>
-  </si>
-  <si>
-    <t>Als behandelnder Arzt, möchte ich in der Terminansicht Notizen zu der aktuellen Sitzung festhalten.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +448,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -305,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -330,6 +492,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -348,7 +515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,17 +837,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -696,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -704,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -712,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -720,7 +887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -734,14 +901,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDEC988-43B7-433F-898C-4AFE1D0A0122}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <f>5*B3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">5*B4</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
@@ -753,190 +984,236 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -945,17 +1222,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="72.5703125" customWidth="1"/>
@@ -969,45 +1246,48 @@
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="60">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1015,37 +1295,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I2" s="8">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>46</v>
+      <c r="J2" s="8">
+        <v>8</v>
+      </c>
+      <c r="K2" s="8">
+        <v>9</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30">
       <c r="A3" s="9">
         <v>1.2</v>
       </c>
@@ -1053,37 +1333,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I3" s="8">
         <v>8</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>46</v>
+      <c r="J3" s="8">
+        <v>8</v>
+      </c>
+      <c r="K3" s="8">
+        <v>6</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30">
       <c r="A4" s="9">
         <v>1.3</v>
       </c>
@@ -1091,37 +1371,37 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I4" s="8">
         <v>8</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>46</v>
+      <c r="J4" s="8">
+        <v>8</v>
+      </c>
+      <c r="K4" s="8">
+        <v>7</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30">
       <c r="A5" s="9">
         <v>1.4</v>
       </c>
@@ -1129,37 +1409,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I5" s="8">
         <v>8</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>46</v>
+      <c r="J5" s="8">
+        <v>8</v>
+      </c>
+      <c r="K5" s="8">
+        <v>8</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" s="9">
         <v>1.5</v>
       </c>
@@ -1167,34 +1447,576 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I6" s="8">
         <v>8</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>46</v>
+      <c r="J6" s="8">
+        <v>8</v>
+      </c>
+      <c r="K6" s="8">
+        <v>8</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30">
+      <c r="A9" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30">
+      <c r="A10" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30">
+      <c r="A11" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45">
+      <c r="A12" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30">
+      <c r="A13" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30">
+      <c r="A14" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="45">
+      <c r="A15" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30">
+      <c r="A16" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30">
+      <c r="A18" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30">
+      <c r="A20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30">
+      <c r="A21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +2024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1210,28 +2032,28 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1245,7 +2067,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1266,12 +2088,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1407,42 +2226,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A72C33-D157-4E1D-94E8-1D2C653DE931}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F2A5221-C876-4178-8DE6-07021B291793}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7E61F6-5F7F-4032-9F6A-5FB7EC9D821F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3d1dfd9-2c46-4740-86be-d7afc8a22601"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7E61F6-5F7F-4032-9F6A-5FB7EC9D821F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F2A5221-C876-4178-8DE6-07021B291793}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A72C33-D157-4E1D-94E8-1D2C653DE931}"/>
 </file>
--- a/doc/task06/ScrumPlanung.xlsx
+++ b/doc/task06/ScrumPlanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22918"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alain\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB9C0537-54DF-4CC6-ABD0-D73411774866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73519BC3-8A9F-405B-97B9-48F6B29CDF93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -279,75 +279,75 @@
     <t>Routingkonzept definieren.</t>
   </si>
   <si>
+    <t>Patient Presenter</t>
+  </si>
+  <si>
+    <t>Klasse PatientPresenter erstellen und ausprogrammieren. Liste aller Termine dieses Patienten.</t>
+  </si>
+  <si>
+    <t>Presenter</t>
+  </si>
+  <si>
+    <t>Patient View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface PatientView und Klasse PatientView erstellen und ausprogrammieren. </t>
+  </si>
+  <si>
+    <t>Patient Model ergänzen</t>
+  </si>
+  <si>
+    <t>Deprecated Date ersetzen. Patient Model ergänzen mit: AHV-Nr, Beruf, Arbeitgeber. Geburtsdatum in der Patientenübersicht anzeigen.</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Termin erstellen: Presenter</t>
+  </si>
+  <si>
+    <t>Klasse CreateAppointmentPresenter erstellen und ausprogrammieren. Dropdown wird mit allen Patienten ausgefüllt. Wenn man aus dem Patientendetail kommt: Patient vorausgewählt und Dropdown read-only.</t>
+  </si>
+  <si>
+    <t>Bis 18.05.2020 zu erledigen!</t>
+  </si>
+  <si>
+    <t>Termin erstellen:  View</t>
+  </si>
+  <si>
+    <t>Interface CreateAppointmentView und Klasse CreateAppointmentView erstellen und ausprogrammieren.</t>
+  </si>
+  <si>
+    <t>Appointment Model ergänzen</t>
+  </si>
+  <si>
+    <t>Appointment Model ergänzen: Feld Date umbenennen zu start_date, zusätzlich end_date einfügen.</t>
+  </si>
+  <si>
+    <t>Termin erstellen: Datepicker &amp; Zeitraum</t>
+  </si>
+  <si>
+    <t>Datepicker zur Verfügung stellen. Wenn Datum ausgewählt: Liste aller Termine an diesem Datum wird angezeigt. Je ein Inputfeld für Anfangs- und Endzeitpunkt.</t>
+  </si>
+  <si>
+    <t>Termin erstellen: Validierung Zeitpunkt</t>
+  </si>
+  <si>
+    <t>Eingegebener Zeitraum mit Terminen abgleichen und validieren, ob gewünschter Zeitraum frei ist. Termin abspeichern.</t>
+  </si>
+  <si>
+    <t>Model, Validator</t>
+  </si>
+  <si>
+    <t>Appointment Presenter</t>
+  </si>
+  <si>
+    <t>Klasse AppointmentDetailPresenter erstellen und ausprogrammieren.</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Patient Presenter</t>
-  </si>
-  <si>
-    <t>Klasse PatientPresenter erstellen und ausprogrammieren. Liste aller Termine dieses Patienten.</t>
-  </si>
-  <si>
-    <t>Presenter</t>
-  </si>
-  <si>
-    <t>Patient View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface PatientView und Klasse PatientView erstellen und ausprogrammieren. </t>
-  </si>
-  <si>
-    <t>Patient Model ergänzen</t>
-  </si>
-  <si>
-    <t>Deprecated Date ersetzen. Patient Model ergänzen mit: AHV-Nr, Beruf, Arbeitgeber. Geburtsdatum in der Patientenübersicht anzeigen.</t>
-  </si>
-  <si>
-    <t>Alle</t>
-  </si>
-  <si>
-    <t>Termin erstellen: Presenter</t>
-  </si>
-  <si>
-    <t>Klasse CreateAppointmentPresenter erstellen und ausprogrammieren. Dropdown wird mit allen Patienten ausgefüllt. Wenn man aus dem Patientendetail kommt: Patient vorausgewählt und Dropdown read-only.</t>
-  </si>
-  <si>
-    <t>Bis 18.05.2020 zu erledigen!</t>
-  </si>
-  <si>
-    <t>Termin erstellen:  View</t>
-  </si>
-  <si>
-    <t>Interface CreateAppointmentView und Klasse CreateAppointmentView erstellen und ausprogrammieren.</t>
-  </si>
-  <si>
-    <t>Appointment Model ergänzen</t>
-  </si>
-  <si>
-    <t>Appointment Model ergänzen: Feld Date umbenennen zu start_date, zusätzlich end_date einfügen.</t>
-  </si>
-  <si>
-    <t>Termin erstellen: Datepicker &amp; Zeitraum</t>
-  </si>
-  <si>
-    <t>Datepicker zur Verfügung stellen. Wenn Datum ausgewählt: Liste aller Termine an diesem Datum wird angezeigt. Je ein Inputfeld für Anfangs- und Endzeitpunkt.</t>
-  </si>
-  <si>
-    <t>Termin erstellen: Validierung Zeitpunkt</t>
-  </si>
-  <si>
-    <t>Eingegebener Zeitraum mit Terminen abgleichen und validieren, ob gewünschter Zeitraum frei ist. Termin abspeichern.</t>
-  </si>
-  <si>
-    <t>Model, Validator</t>
-  </si>
-  <si>
-    <t>Appointment Presenter</t>
-  </si>
-  <si>
-    <t>Klasse AppointmentDetailPresenter erstellen und ausprogrammieren.</t>
-  </si>
-  <si>
     <t>Appointment View</t>
   </si>
   <si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Persistence concept erstellen und Resultats-Dokument erstellen + hochladen</t>
+  </si>
+  <si>
+    <t>Seitentitel</t>
+  </si>
+  <si>
+    <t>Seitentitel vereinheitlichen.</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint </t>
@@ -450,7 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFEDEDED"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -489,13 +495,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,7 +997,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1224,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1287,736 +1315,799 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="9">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1">
+      <c r="A3" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="12">
         <v>8</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J3" s="12">
         <v>8</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K3" s="12">
         <v>9</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L3" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30">
-      <c r="A3" s="9">
+    <row r="4" spans="1:13" s="16" customFormat="1" ht="30">
+      <c r="A4" s="14">
         <v>1.2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="H4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="15">
         <v>8</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J4" s="15">
         <v>8</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K4" s="15">
         <v>6</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30">
-      <c r="A4" s="9">
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="A5" s="11">
         <v>1.3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="H5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="12">
         <v>8</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J5" s="12">
         <v>8</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K5" s="12">
         <v>7</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L5" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30">
-      <c r="A5" s="9">
+    <row r="6" spans="1:13" s="16" customFormat="1" ht="30">
+      <c r="A6" s="14">
         <v>1.4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="H6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="15">
         <v>8</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J6" s="15">
         <v>8</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K6" s="15">
         <v>8</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L6" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30">
-      <c r="A6" s="9">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="A7" s="11">
         <v>1.5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="12">
         <v>8</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="12">
         <v>8</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K7" s="12">
         <v>8</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L7" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="7">
+    <row r="8" spans="1:13" s="10" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1">
+      <c r="A9" s="17">
         <v>2.1</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8">
+      <c r="G9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="13">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" s="13">
+        <v>2</v>
+      </c>
+      <c r="K9" s="13">
+        <v>3</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="16" customFormat="1" ht="30">
+      <c r="A10" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="D10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16">
+        <v>3</v>
+      </c>
+      <c r="J10" s="16">
+        <v>3</v>
+      </c>
+      <c r="K10" s="16">
+        <v>3</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="A11" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="13">
+        <v>5</v>
+      </c>
+      <c r="J11" s="13">
+        <v>5</v>
+      </c>
+      <c r="K11" s="13">
+        <v>5</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="16" customFormat="1" ht="30">
+      <c r="A12" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="16">
+        <v>6</v>
+      </c>
+      <c r="J12" s="16">
+        <v>6</v>
+      </c>
+      <c r="K12" s="16">
+        <v>6</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="45">
+      <c r="A13" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="13">
+        <v>8</v>
+      </c>
+      <c r="K13" s="13">
+        <v>8</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="30">
+      <c r="A14" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="16">
+        <v>7</v>
+      </c>
+      <c r="J14" s="16">
+        <v>7</v>
+      </c>
+      <c r="K14" s="16">
+        <v>7</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="A15" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="13">
+        <v>4</v>
+      </c>
+      <c r="J15" s="13">
+        <v>4</v>
+      </c>
+      <c r="K15" s="13">
+        <v>4</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="16" customFormat="1" ht="45">
+      <c r="A16" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="B16" s="16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="16">
+        <v>8</v>
+      </c>
+      <c r="J16" s="16">
+        <v>8</v>
+      </c>
+      <c r="K16" s="16">
+        <v>6</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A17" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="13">
+        <v>10</v>
+      </c>
+      <c r="J17" s="13">
+        <v>10</v>
+      </c>
+      <c r="K17" s="13">
+        <v>8</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="16" customFormat="1">
+      <c r="A18" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B18" s="16">
+        <v>2</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="16">
+        <v>3</v>
+      </c>
+      <c r="J18" s="16">
+        <v>3</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30">
-      <c r="A9" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B9">
+    <row r="19" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A19" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="B19" s="13">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9">
+      <c r="H19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="13">
+        <v>5</v>
+      </c>
+      <c r="J19" s="13">
+        <v>5</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="16" customFormat="1">
+      <c r="A20" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="16">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="16">
+        <v>1</v>
+      </c>
+      <c r="J20" s="16">
+        <v>1</v>
+      </c>
+      <c r="K20" s="16">
         <v>3</v>
       </c>
-      <c r="J9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B10">
+      <c r="L20" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A21" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="13">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30">
-      <c r="A11" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="B11">
+      <c r="C21" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="13">
+        <v>4</v>
+      </c>
+      <c r="J21" s="13">
+        <v>4</v>
+      </c>
+      <c r="K21" s="13">
+        <v>4</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="16" customFormat="1" ht="30">
+      <c r="A22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="16">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="B12">
+      <c r="C22" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="16">
+        <v>4</v>
+      </c>
+      <c r="J22" s="16">
+        <v>4</v>
+      </c>
+      <c r="K22" s="16">
+        <v>4</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="13" customFormat="1">
+      <c r="A23" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="13">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30">
-      <c r="A13" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13">
-        <v>7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30">
-      <c r="A14" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="45">
-      <c r="A15" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30">
-      <c r="A16" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17">
+      <c r="H23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1</v>
+      </c>
+      <c r="K23" s="13">
+        <v>1</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="9" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30">
-      <c r="A18" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30">
-      <c r="A20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30">
-      <c r="A21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>35</v>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2041,16 +2132,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2088,9 +2179,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2226,16 +2320,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F2A5221-C876-4178-8DE6-07021B291793}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A72C33-D157-4E1D-94E8-1D2C653DE931}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2243,5 +2334,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A72C33-D157-4E1D-94E8-1D2C653DE931}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F2A5221-C876-4178-8DE6-07021B291793}"/>
 </file>
--- a/doc/task06/ScrumPlanung.xlsx
+++ b/doc/task06/ScrumPlanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22918"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22920"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alain\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73519BC3-8A9F-405B-97B9-48F6B29CDF93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{328DBA16-8B73-4FBB-BE20-94E61922404D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
   <si>
     <t>Name</t>
   </si>
@@ -114,6 +114,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Bemerkungen</t>
+  </si>
+  <si>
     <t>MainView anzeigen</t>
   </si>
   <si>
@@ -141,46 +144,70 @@
     <t>8h</t>
   </si>
   <si>
+    <t>17h</t>
+  </si>
+  <si>
+    <t>Termin erstellen</t>
+  </si>
+  <si>
+    <t>Als behandelnder Arzt, möchte ich für einen Patienten einen neuen Termin erstellen können.</t>
+  </si>
+  <si>
+    <t>33h</t>
+  </si>
+  <si>
+    <t>Anzeigen Termindetails</t>
+  </si>
+  <si>
+    <t>Als behandelnder Arzt, möchte die Informationen eines Termins einsehen können.</t>
+  </si>
+  <si>
+    <t>Behandlungsnotizen erfassen</t>
+  </si>
+  <si>
+    <t>Als behandelnder Arzt, möchte ich in der Terminansicht Notizen zu der aktuellen Sitzung festhalten.</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>Weniger Aufwand als erwartet und wurde direkt mit Story 4 umgesetzt</t>
+  </si>
+  <si>
+    <t>Patientendetails editieren</t>
+  </si>
+  <si>
+    <t>Als behandelnder Arzt möchte ich einen bestehenden Patienten editieren können.</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
-    <t>Termin erstellen</t>
-  </si>
-  <si>
-    <t>Als behandelnder Arzt, möchte ich für einen Patienten einen neuen Termin erstellen können.</t>
-  </si>
-  <si>
-    <t>Anzeigen Termindetails</t>
-  </si>
-  <si>
-    <t>Als behandelnder Arzt, möchte die Informationen eines Termins einsehen können.</t>
-  </si>
-  <si>
-    <t>Behandlungsnotizen erfassen</t>
-  </si>
-  <si>
-    <t>Als behandelnder Arzt, möchte ich in der Terminansicht Notizen zu der aktuellen Sitzung festhalten.</t>
-  </si>
-  <si>
-    <t>16h</t>
-  </si>
-  <si>
-    <t>Patientendetails editieren</t>
-  </si>
-  <si>
-    <t>Als behandelnder Arzt möchte ich einen bestehenden Patienten editieren können.</t>
+    <t>Aktuelle Behandlung</t>
+  </si>
+  <si>
+    <t>Als behandelnder Arzt, möchte ich pro Patient die aktuelle Behandlung im Patientendetail einsehen können.</t>
   </si>
   <si>
     <t>medium</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>Aktuelle Behandlung</t>
-  </si>
-  <si>
-    <t>Als behandelnder Arzt, möchte ich pro Patient die aktuelle Behandlung im Patientendetail einsehen können.</t>
+    <t>13h</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
   <si>
     <t>Erfassung Patientenaufgaben</t>
@@ -201,9 +228,6 @@
     <t xml:space="preserve">Als behandelnder Arzt, möchte ich einen neuen Patienten erstellen und dessen Informationen erfassen können </t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -345,9 +369,6 @@
     <t>Klasse AppointmentDetailPresenter erstellen und ausprogrammieren.</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Appointment View</t>
   </si>
   <si>
@@ -396,10 +417,76 @@
     <t>Persistence concept erstellen und Resultats-Dokument erstellen + hochladen</t>
   </si>
   <si>
-    <t>Seitentitel</t>
-  </si>
-  <si>
-    <t>Seitentitel vereinheitlichen.</t>
+    <t>Restanzen Sprint 2</t>
+  </si>
+  <si>
+    <t>Termin View: Vergangene Termine mit Link zum Termin, Speichern Button primary</t>
+  </si>
+  <si>
+    <t>Generelle Verbesserungen</t>
+  </si>
+  <si>
+    <t>Seitentitel vereinheitlichen, Buttons wo möglich mit Icon, Home-Button, Labels vereinheitlichen</t>
+  </si>
+  <si>
+    <t>Termin löschen</t>
+  </si>
+  <si>
+    <t>Ein zukünftiger Termin soll im Termindetail gelöscht werden können (zusätzlicher Button)</t>
+  </si>
+  <si>
+    <t>Terminview ergänzen (Behandlung, Diagnose)</t>
+  </si>
+  <si>
+    <t>Button "Neue Behandlung", Anzeige aktuelle Behandlung (Liste), Wenn Diagnose leer, vom letzten Temrin holen, Diagnose speichern umsetzen (Appointment Model ergänzen)</t>
+  </si>
+  <si>
+    <t>Medication Presenter</t>
+  </si>
+  <si>
+    <t>Klasse MeciationPresenter erstellen und ausprogrammieren.</t>
+  </si>
+  <si>
+    <t>Bis 30.05.2020 zu erledigen!</t>
+  </si>
+  <si>
+    <t>Medication View</t>
+  </si>
+  <si>
+    <t>Interface MedicationView und Klasse MedicationView erstellen und ausprogrammieren. Nach Möglichkeit als Popup umsetzen. Datepicker für Start/Enddatum, Eingabefeld Anwendung, Dropdown Medikament.</t>
+  </si>
+  <si>
+    <t>Medication speichern</t>
+  </si>
+  <si>
+    <t>Eingegebene Daten als Medication speichern. Validierung der Formulardaten. Nach Möglichkeit mit Binder umzusetzen.</t>
+  </si>
+  <si>
+    <t>Task Presenter</t>
+  </si>
+  <si>
+    <t>Klasse TaskPresenter erstellen und ausprogrammieren.</t>
+  </si>
+  <si>
+    <t>Bis 02.06.2020 zu erledigen!</t>
+  </si>
+  <si>
+    <t>Task View</t>
+  </si>
+  <si>
+    <t>Interface TaskView und Klasse TaskView erstellen und ausprogrammieren. Nach Möglichkeit als Popup umsetzen. Datepicker für Start/Enddatum, Eingabefeld für Name &amp; Beschreibung</t>
+  </si>
+  <si>
+    <t>Task speichern</t>
+  </si>
+  <si>
+    <t>Eingegebene Daten als Task speichern. Validierung der Formulardaten. Nach Möglichkeit mit Binder umzusetzen.</t>
+  </si>
+  <si>
+    <t>Terminview ergänzen (Tasks)</t>
+  </si>
+  <si>
+    <t>Anzeige laufender Patientenaufgaben umsetzen (Liste). Pro Aufgabe einen "Abschliessen" Button, der den TaskState auf Done setzt.</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint </t>
@@ -473,11 +560,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -492,9 +576,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -524,6 +605,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,11 +959,11 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -933,7 +1017,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -994,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1010,238 +1094,299 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30">
-      <c r="A2">
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="E6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="F9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="F11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1252,15 +1397,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="72.5703125" customWidth="1"/>
@@ -1274,840 +1419,1259 @@
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="60">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="60">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="M1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1">
-      <c r="A3" s="11">
+    <row r="3" spans="1:13" s="11" customFormat="1">
+      <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="C3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="10">
         <v>8</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <v>8</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>9</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="16" customFormat="1" ht="30">
-      <c r="A4" s="14">
+      <c r="L3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="30">
+      <c r="A4" s="12">
         <v>1.2</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="C4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="13">
         <v>8</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>8</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <v>6</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="30">
-      <c r="A5" s="11">
+      <c r="L4" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="30">
+      <c r="A5" s="9">
         <v>1.3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="10">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10">
+        <v>8</v>
+      </c>
+      <c r="K5" s="10">
+        <v>7</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="14" customFormat="1" ht="30">
+      <c r="A6" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="13">
+        <v>8</v>
+      </c>
+      <c r="J6" s="13">
+        <v>8</v>
+      </c>
+      <c r="K6" s="13">
+        <v>8</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="30">
+      <c r="A7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="10">
+        <v>8</v>
+      </c>
+      <c r="J7" s="10">
+        <v>8</v>
+      </c>
+      <c r="K7" s="10">
+        <v>8</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="11" customFormat="1">
+      <c r="A9" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11">
+        <v>3</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="14" customFormat="1" ht="30">
+      <c r="A10" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="H10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="14">
+        <v>3</v>
+      </c>
+      <c r="J10" s="14">
+        <v>3</v>
+      </c>
+      <c r="K10" s="14">
+        <v>3</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="11" customFormat="1" ht="30">
+      <c r="A11" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="11">
+        <v>5</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="14" customFormat="1" ht="30">
+      <c r="A12" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="14">
+        <v>6</v>
+      </c>
+      <c r="J12" s="14">
+        <v>6</v>
+      </c>
+      <c r="K12" s="14">
+        <v>6</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="45">
+      <c r="A13" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="11">
+        <v>8</v>
+      </c>
+      <c r="J13" s="11">
+        <v>8</v>
+      </c>
+      <c r="K13" s="11">
+        <v>8</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="14" customFormat="1" ht="30">
+      <c r="A14" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="14">
+        <v>7</v>
+      </c>
+      <c r="J14" s="14">
+        <v>7</v>
+      </c>
+      <c r="K14" s="14">
+        <v>7</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="11" customFormat="1" ht="30">
+      <c r="A15" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="11">
+        <v>4</v>
+      </c>
+      <c r="J15" s="11">
+        <v>4</v>
+      </c>
+      <c r="K15" s="11">
+        <v>4</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="14" customFormat="1" ht="45">
+      <c r="A16" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="H16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="14">
         <v>8</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J16" s="14">
         <v>8</v>
       </c>
-      <c r="K5" s="12">
-        <v>7</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="16" customFormat="1" ht="30">
-      <c r="A6" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="K16" s="14">
+        <v>6</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="11" customFormat="1" ht="30">
+      <c r="A17" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="11">
+        <v>10</v>
+      </c>
+      <c r="J17" s="11">
+        <v>10</v>
+      </c>
+      <c r="K17" s="11">
+        <v>8</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="14" customFormat="1">
+      <c r="A18" s="16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="14">
+        <v>3</v>
+      </c>
+      <c r="J18" s="14">
+        <v>3</v>
+      </c>
+      <c r="K18" s="14">
+        <v>3</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="11" customFormat="1" ht="30">
+      <c r="A19" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="11">
+        <v>5</v>
+      </c>
+      <c r="J19" s="11">
+        <v>5</v>
+      </c>
+      <c r="K19" s="11">
+        <v>5</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="14" customFormat="1">
+      <c r="A20" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="J20" s="14">
+        <v>1</v>
+      </c>
+      <c r="K20" s="14">
+        <v>3</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="11" customFormat="1" ht="30">
+      <c r="A21" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="15">
-        <v>8</v>
-      </c>
-      <c r="J6" s="15">
-        <v>8</v>
-      </c>
-      <c r="K6" s="15">
-        <v>8</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="30">
-      <c r="A7" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="F21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="11">
+        <v>4</v>
+      </c>
+      <c r="J21" s="11">
+        <v>4</v>
+      </c>
+      <c r="K21" s="11">
+        <v>4</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="14" customFormat="1" ht="30">
+      <c r="A22" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="14">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="14">
+        <v>4</v>
+      </c>
+      <c r="J22" s="14">
+        <v>4</v>
+      </c>
+      <c r="K22" s="14">
+        <v>4</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="11" customFormat="1">
+      <c r="A23" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="7" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="14" customFormat="1" ht="30">
+      <c r="A25" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="G25" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="11" customFormat="1" ht="30">
+      <c r="A26" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="B26" s="11">
+        <v>3</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="11">
+        <v>4</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30">
+      <c r="A27" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="B27" s="14">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="11" customFormat="1" ht="45">
+      <c r="A28" s="11">
+        <v>7.1</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="11">
+        <v>5</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="14" customFormat="1">
+      <c r="A29" s="14">
+        <v>7.2</v>
+      </c>
+      <c r="B29" s="14">
+        <v>3</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="H29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="14">
+        <v>2</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="11" customFormat="1" ht="45">
+      <c r="A30" s="11">
+        <v>7.3</v>
+      </c>
+      <c r="B30" s="11">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="11">
+        <v>4</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="14" customFormat="1" ht="30">
+      <c r="A31" s="16">
+        <v>7.4</v>
+      </c>
+      <c r="B31" s="14">
+        <v>3</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="12">
-        <v>8</v>
-      </c>
-      <c r="J7" s="12">
-        <v>8</v>
-      </c>
-      <c r="K7" s="12">
-        <v>8</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="13" customFormat="1">
-      <c r="A9" s="17">
-        <v>2.1</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="G31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="J31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="11" customFormat="1">
+      <c r="A32" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="B32" s="11">
+        <v>3</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="11">
+        <v>2</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="45">
+      <c r="A33" s="16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B33" s="14">
+        <v>3</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F33" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="G33" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="14">
+        <v>4</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="11" customFormat="1" ht="30">
+      <c r="A34" s="11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="11">
         <v>2</v>
       </c>
-      <c r="J9" s="13">
-        <v>2</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="J34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="14" customFormat="1" ht="30">
+      <c r="A35" s="14">
+        <v>8.4</v>
+      </c>
+      <c r="B35" s="14">
         <v>3</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="16" customFormat="1" ht="30">
-      <c r="A10" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B10" s="16">
-        <v>2</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="C35" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="16">
-        <v>3</v>
-      </c>
-      <c r="J10" s="16">
-        <v>3</v>
-      </c>
-      <c r="K10" s="16">
-        <v>3</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="30">
-      <c r="A11" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B11" s="13">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="13">
-        <v>5</v>
-      </c>
-      <c r="J11" s="13">
-        <v>5</v>
-      </c>
-      <c r="K11" s="13">
-        <v>5</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="16" customFormat="1" ht="30">
-      <c r="A12" s="18">
-        <v>2.4</v>
-      </c>
-      <c r="B12" s="16">
-        <v>2</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="16">
-        <v>6</v>
-      </c>
-      <c r="J12" s="16">
-        <v>6</v>
-      </c>
-      <c r="K12" s="16">
-        <v>6</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="45">
-      <c r="A13" s="17">
-        <v>3.1</v>
-      </c>
-      <c r="B13" s="13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="13">
-        <v>8</v>
-      </c>
-      <c r="J13" s="13">
-        <v>8</v>
-      </c>
-      <c r="K13" s="13">
-        <v>8</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="16" customFormat="1" ht="30">
-      <c r="A14" s="18">
-        <v>3.2</v>
-      </c>
-      <c r="B14" s="16">
-        <v>2</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="16">
-        <v>7</v>
-      </c>
-      <c r="J14" s="16">
-        <v>7</v>
-      </c>
-      <c r="K14" s="16">
-        <v>7</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="30">
-      <c r="A15" s="17">
-        <v>3.3</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="H35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="14">
         <v>4</v>
       </c>
-      <c r="J15" s="13">
-        <v>4</v>
-      </c>
-      <c r="K15" s="13">
-        <v>4</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="16" customFormat="1" ht="45">
-      <c r="A16" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="B16" s="16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="16">
-        <v>8</v>
-      </c>
-      <c r="J16" s="16">
-        <v>8</v>
-      </c>
-      <c r="K16" s="16">
-        <v>6</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="13" customFormat="1" ht="30">
-      <c r="A17" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="B17" s="13">
-        <v>2</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="13">
-        <v>10</v>
-      </c>
-      <c r="J17" s="13">
-        <v>10</v>
-      </c>
-      <c r="K17" s="13">
-        <v>8</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="16" customFormat="1">
-      <c r="A18" s="18">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B18" s="16">
-        <v>2</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="16">
-        <v>3</v>
-      </c>
-      <c r="J18" s="16">
-        <v>3</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="13" customFormat="1" ht="30">
-      <c r="A19" s="17">
-        <v>4.2</v>
-      </c>
-      <c r="B19" s="13">
-        <v>2</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="13">
-        <v>5</v>
-      </c>
-      <c r="J19" s="13">
-        <v>5</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="16" customFormat="1">
-      <c r="A20" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="16">
-        <v>2</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="16">
-        <v>1</v>
-      </c>
-      <c r="J20" s="16">
-        <v>1</v>
-      </c>
-      <c r="K20" s="16">
-        <v>3</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="13" customFormat="1" ht="30">
-      <c r="A21" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="13">
-        <v>2</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="13">
-        <v>4</v>
-      </c>
-      <c r="J21" s="13">
-        <v>4</v>
-      </c>
-      <c r="K21" s="13">
-        <v>4</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="16" customFormat="1" ht="30">
-      <c r="A22" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="16">
-        <v>2</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="16">
-        <v>4</v>
-      </c>
-      <c r="J22" s="16">
-        <v>4</v>
-      </c>
-      <c r="K22" s="16">
-        <v>4</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="13" customFormat="1">
-      <c r="A23" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="13">
-        <v>2</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="13">
-        <v>1</v>
-      </c>
-      <c r="J23" s="13">
-        <v>1</v>
-      </c>
-      <c r="K23" s="13">
-        <v>1</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" t="s">
-        <v>121</v>
+      <c r="J35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2130,25 +2694,25 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>125</v>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="26.45" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>42262</v>
       </c>
       <c r="C2">
@@ -2162,7 +2726,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>42263</v>
       </c>
       <c r="C3">
@@ -2188,6 +2752,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006893662426E20041B5DC715A07C05AC8" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="cfa5dbc63f8360875fb5cebbf6cc0ee9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3d1dfd9-2c46-4740-86be-d7afc8a22601" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab47c2e1816536da0ebbf518d1bc925c" ns2:_="">
     <xsd:import namespace="f3d1dfd9-2c46-4740-86be-d7afc8a22601"/>
@@ -2319,20 +2889,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A72C33-D157-4E1D-94E8-1D2C653DE931}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7E61F6-5F7F-4032-9F6A-5FB7EC9D821F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F2A5221-C876-4178-8DE6-07021B291793}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F2A5221-C876-4178-8DE6-07021B291793}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7E61F6-5F7F-4032-9F6A-5FB7EC9D821F}"/>
 </file>
--- a/doc/task06/ScrumPlanung.xlsx
+++ b/doc/task06/ScrumPlanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alain\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{328DBA16-8B73-4FBB-BE20-94E61922404D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09580185-7493-4A80-AD75-C5BEC63C8143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="155">
   <si>
     <t>Name</t>
   </si>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2424,14 +2424,14 @@
       <c r="I29" s="14">
         <v>2</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>51</v>
+      <c r="J29" s="14">
+        <v>2</v>
+      </c>
+      <c r="K29" s="14">
+        <v>2</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M29" s="14" t="s">
         <v>137</v>
@@ -2465,14 +2465,14 @@
       <c r="I30" s="11">
         <v>4</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>51</v>
+      <c r="J30" s="11">
+        <v>4</v>
+      </c>
+      <c r="K30" s="11">
+        <v>4</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>137</v>
@@ -2544,14 +2544,14 @@
       <c r="I32" s="11">
         <v>2</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>51</v>
+      <c r="J32" s="11">
+        <v>2</v>
+      </c>
+      <c r="K32" s="11">
+        <v>2</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>144</v>
@@ -2585,14 +2585,14 @@
       <c r="I33" s="14">
         <v>4</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>51</v>
+      <c r="J33" s="14">
+        <v>4</v>
+      </c>
+      <c r="K33" s="14">
+        <v>4</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>144</v>
@@ -2743,21 +2743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006893662426E20041B5DC715A07C05AC8" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="cfa5dbc63f8360875fb5cebbf6cc0ee9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3d1dfd9-2c46-4740-86be-d7afc8a22601" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab47c2e1816536da0ebbf518d1bc925c" ns2:_="">
     <xsd:import namespace="f3d1dfd9-2c46-4740-86be-d7afc8a22601"/>
@@ -2889,8 +2874,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A72C33-D157-4E1D-94E8-1D2C653DE931}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7E61F6-5F7F-4032-9F6A-5FB7EC9D821F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2898,5 +2898,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7E61F6-5F7F-4032-9F6A-5FB7EC9D821F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A72C33-D157-4E1D-94E8-1D2C653DE931}"/>
 </file>
--- a/doc/task06/ScrumPlanung.xlsx
+++ b/doc/task06/ScrumPlanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alain\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09580185-7493-4A80-AD75-C5BEC63C8143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{283EA357-A754-4B89-82B8-56BC9E03450B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="156">
   <si>
     <t>Name</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Termin View: Vergangene Termine mit Link zum Termin, Speichern Button primary</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>Generelle Verbesserungen</t>
@@ -1399,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2272,14 +2275,14 @@
       <c r="I25" s="14">
         <v>1</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>51</v>
+      <c r="J25" s="14">
+        <v>1</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="30">
@@ -2290,10 +2293,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>80</v>
@@ -2310,14 +2313,14 @@
       <c r="I26" s="11">
         <v>4</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>51</v>
+      <c r="J26" s="11">
+        <v>4</v>
+      </c>
+      <c r="K26" s="11">
+        <v>4</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30">
@@ -2328,10 +2331,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>80</v>
@@ -2348,14 +2351,14 @@
       <c r="I27" s="14">
         <v>1</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>51</v>
+      <c r="J27" s="14">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14">
+        <v>2</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="45">
@@ -2366,10 +2369,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>80</v>
@@ -2386,14 +2389,14 @@
       <c r="I28" s="11">
         <v>5</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>51</v>
+      <c r="J28" s="11">
+        <v>5</v>
+      </c>
+      <c r="K28" s="11">
+        <v>5</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="14" customFormat="1">
@@ -2404,10 +2407,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>91</v>
@@ -2434,7 +2437,7 @@
         <v>32</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="45">
@@ -2445,10 +2448,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>80</v>
@@ -2475,7 +2478,7 @@
         <v>32</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="14" customFormat="1" ht="30">
@@ -2486,10 +2489,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>91</v>
@@ -2506,14 +2509,14 @@
       <c r="I31" s="14">
         <v>2</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>51</v>
+      <c r="J31" s="14">
+        <v>2</v>
+      </c>
+      <c r="K31" s="14">
+        <v>1</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1">
@@ -2524,10 +2527,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>91</v>
@@ -2554,7 +2557,7 @@
         <v>32</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="45">
@@ -2565,10 +2568,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>80</v>
@@ -2595,7 +2598,7 @@
         <v>32</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="30">
@@ -2606,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>91</v>
@@ -2626,14 +2629,14 @@
       <c r="I34" s="11">
         <v>2</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>51</v>
+      <c r="J34" s="11">
+        <v>2</v>
+      </c>
+      <c r="K34" s="11">
+        <v>2</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="14" customFormat="1" ht="30">
@@ -2644,10 +2647,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>80</v>
@@ -2664,14 +2667,14 @@
       <c r="I35" s="14">
         <v>4</v>
       </c>
-      <c r="J35" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>51</v>
+      <c r="J35" s="14">
+        <v>4</v>
+      </c>
+      <c r="K35" s="14">
+        <v>4</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2696,16 +2699,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="26.45" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2743,6 +2746,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006893662426E20041B5DC715A07C05AC8" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="cfa5dbc63f8360875fb5cebbf6cc0ee9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3d1dfd9-2c46-4740-86be-d7afc8a22601" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab47c2e1816536da0ebbf518d1bc925c" ns2:_="">
     <xsd:import namespace="f3d1dfd9-2c46-4740-86be-d7afc8a22601"/>
@@ -2874,12 +2883,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2890,11 +2893,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7E61F6-5F7F-4032-9F6A-5FB7EC9D821F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F2A5221-C876-4178-8DE6-07021B291793}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F2A5221-C876-4178-8DE6-07021B291793}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7E61F6-5F7F-4032-9F6A-5FB7EC9D821F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
